--- a/RBI-Sites/sites.xlsx
+++ b/RBI-Sites/sites.xlsx
@@ -6,8 +6,9 @@
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Data" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Sheet" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Sites" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Loadings" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Sheet" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>instanceID</t>
   </si>
@@ -213,6 +214,27 @@
   </si>
   <si>
     <t>30 18' 26.9" E</t>
+  </si>
+  <si>
+    <t>loading_operator</t>
+  </si>
+  <si>
+    <t>nr_of_GSM_antenna</t>
+  </si>
+  <si>
+    <t>size_of_GSM_antenna</t>
+  </si>
+  <si>
+    <t>height_of_GSM_antenna</t>
+  </si>
+  <si>
+    <t>number_of_MW_dishes</t>
+  </si>
+  <si>
+    <t>date_of_structural_approval</t>
+  </si>
+  <si>
+    <t>structural_approval_for</t>
   </si>
 </sst>
 </file>
@@ -805,6 +827,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
